--- a/database/industries/palayesh/shapna/cost/yearly.xlsx
+++ b/database/industries/palayesh/shapna/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819D728-3384-4344-8881-17C14E0E7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6189C3-41C0-4670-8480-433E0F61582E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -106,9 +106,6 @@
     <t>mtbe</t>
   </si>
   <si>
-    <t>تن</t>
-  </si>
-  <si>
     <t>نفت خام سبک</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>متر مکعب / ریال</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -650,12 +644,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +659,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +671,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +683,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +693,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +705,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +717,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +727,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,95 +759,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>222771507</v>
+        <v>447486722</v>
       </c>
       <c r="F10" s="9">
-        <v>447486722</v>
+        <v>826295953</v>
       </c>
       <c r="G10" s="9">
-        <v>826295953</v>
+        <v>962463942</v>
       </c>
       <c r="H10" s="9">
-        <v>962463942</v>
+        <v>1963533607</v>
       </c>
       <c r="I10" s="9">
-        <v>1963533607</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2934206131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>172792</v>
+        <v>173553</v>
       </c>
       <c r="F11" s="11">
-        <v>173553</v>
+        <v>259603</v>
       </c>
       <c r="G11" s="11">
-        <v>259603</v>
+        <v>372886</v>
       </c>
       <c r="H11" s="11">
-        <v>372886</v>
+        <v>682195</v>
       </c>
       <c r="I11" s="11">
-        <v>682195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1633850</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4081381</v>
+        <v>3247652</v>
       </c>
       <c r="F12" s="9">
-        <v>3247652</v>
+        <v>4477072</v>
       </c>
       <c r="G12" s="9">
-        <v>4477072</v>
+        <v>5611260</v>
       </c>
       <c r="H12" s="9">
-        <v>5611260</v>
+        <v>24327180</v>
       </c>
       <c r="I12" s="9">
-        <v>24327180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48937872</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>227025680</v>
+        <v>450907927</v>
       </c>
       <c r="F13" s="13">
-        <v>450907927</v>
+        <v>831032628</v>
       </c>
       <c r="G13" s="13">
-        <v>831032628</v>
+        <v>968448088</v>
       </c>
       <c r="H13" s="13">
-        <v>968448088</v>
+        <v>1988542982</v>
       </c>
       <c r="I13" s="13">
-        <v>1988542982</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2984777853</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -875,51 +869,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>227025680</v>
+        <v>450907927</v>
       </c>
       <c r="F15" s="13">
-        <v>450907927</v>
+        <v>831032628</v>
       </c>
       <c r="G15" s="13">
-        <v>831032628</v>
+        <v>968448088</v>
       </c>
       <c r="H15" s="13">
-        <v>968448088</v>
+        <v>1988542982</v>
       </c>
       <c r="I15" s="13">
-        <v>1988542982</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2984777853</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-140525</v>
+        <v>-3158203</v>
       </c>
       <c r="F16" s="9">
-        <v>-3158203</v>
+        <v>-3838369</v>
       </c>
       <c r="G16" s="9">
-        <v>-3838369</v>
+        <v>-5111113</v>
       </c>
       <c r="H16" s="9">
-        <v>-5111113</v>
+        <v>-4843284</v>
       </c>
       <c r="I16" s="9">
-        <v>-4843282</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1670845</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,95 +935,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>226885155</v>
+        <v>447749724</v>
       </c>
       <c r="F18" s="15">
-        <v>447749724</v>
+        <v>827194259</v>
       </c>
       <c r="G18" s="15">
-        <v>827194259</v>
+        <v>963336975</v>
       </c>
       <c r="H18" s="15">
-        <v>963336975</v>
+        <v>1983699698</v>
       </c>
       <c r="I18" s="15">
-        <v>1983699700</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2983107008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>3996426</v>
+        <v>5702667</v>
       </c>
       <c r="F19" s="11">
-        <v>5702667</v>
+        <v>23570097</v>
       </c>
       <c r="G19" s="11">
-        <v>23570097</v>
+        <v>42911074</v>
       </c>
       <c r="H19" s="11">
-        <v>42911074</v>
+        <v>24939388</v>
       </c>
       <c r="I19" s="11">
-        <v>24939388</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71833043</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-5702667</v>
+        <v>-23570097</v>
       </c>
       <c r="F20" s="9">
-        <v>-23570097</v>
+        <v>-42911074</v>
       </c>
       <c r="G20" s="9">
-        <v>-42911074</v>
+        <v>-24939388</v>
       </c>
       <c r="H20" s="9">
-        <v>-24939388</v>
+        <v>-71833043</v>
       </c>
       <c r="I20" s="9">
-        <v>-71833045</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-102181679</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>225178914</v>
+        <v>429882294</v>
       </c>
       <c r="F21" s="13">
-        <v>429882294</v>
+        <v>807853282</v>
       </c>
       <c r="G21" s="13">
-        <v>807853282</v>
+        <v>981308661</v>
       </c>
       <c r="H21" s="13">
-        <v>981308661</v>
+        <v>1936806043</v>
       </c>
       <c r="I21" s="13">
-        <v>1936806043</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2952758372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1039,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>3745961</v>
       </c>
       <c r="G22" s="9">
-        <v>3745961</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1051,29 +1045,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>225178914</v>
+        <v>429882294</v>
       </c>
       <c r="F23" s="13">
-        <v>429882294</v>
+        <v>811599243</v>
       </c>
       <c r="G23" s="13">
-        <v>811599243</v>
+        <v>981308661</v>
       </c>
       <c r="H23" s="13">
-        <v>981308661</v>
+        <v>1936806043</v>
       </c>
       <c r="I23" s="13">
-        <v>1936806043</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2952758372</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1077,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1087,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1129,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1146,70 +1140,70 @@
       <c r="E29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="F29" s="9">
+        <v>22572</v>
       </c>
       <c r="G29" s="9">
-        <v>22572</v>
+        <v>7612</v>
       </c>
       <c r="H29" s="9">
-        <v>7612</v>
+        <v>287</v>
       </c>
       <c r="I29" s="9">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>3565</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3002</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2673</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4399</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
-        <v>3565</v>
-      </c>
-      <c r="G30" s="11">
-        <v>3002</v>
-      </c>
-      <c r="H30" s="11">
-        <v>2673</v>
-      </c>
-      <c r="I30" s="11">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>370425</v>
       </c>
       <c r="F31" s="9">
-        <v>370425</v>
+        <v>313229</v>
       </c>
       <c r="G31" s="9">
-        <v>313229</v>
+        <v>376224</v>
       </c>
       <c r="H31" s="9">
-        <v>376224</v>
+        <v>377809</v>
       </c>
       <c r="I31" s="9">
-        <v>377809</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>281209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
@@ -1218,33 +1212,33 @@
       <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>10973</v>
       </c>
       <c r="H32" s="11">
-        <v>10973</v>
+        <v>11927</v>
       </c>
       <c r="I32" s="11">
-        <v>11927</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="9">
         <v>34286</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1255,29 +1249,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>408276</v>
       </c>
       <c r="F34" s="13">
-        <v>408276</v>
+        <v>338803</v>
       </c>
       <c r="G34" s="13">
-        <v>338803</v>
+        <v>397482</v>
       </c>
       <c r="H34" s="13">
-        <v>397482</v>
+        <v>394422</v>
       </c>
       <c r="I34" s="13">
-        <v>394422</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>295198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1287,7 +1281,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1297,7 +1291,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1307,9 +1301,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1329,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1339,7 +1333,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1350,70 +1344,70 @@
       <c r="E40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>26</v>
+      <c r="F40" s="9">
+        <v>4094</v>
       </c>
       <c r="G40" s="9">
-        <v>4094</v>
+        <v>3592</v>
       </c>
       <c r="H40" s="9">
-        <v>3592</v>
+        <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16959</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11">
+        <v>105445</v>
+      </c>
+      <c r="F41" s="11">
+        <v>137016</v>
+      </c>
+      <c r="G41" s="11">
+        <v>117150</v>
+      </c>
+      <c r="H41" s="11">
+        <v>116229</v>
+      </c>
+      <c r="I41" s="11">
+        <v>176119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="11">
-        <v>105445</v>
-      </c>
-      <c r="G41" s="11">
-        <v>137016</v>
-      </c>
-      <c r="H41" s="11">
-        <v>117150</v>
-      </c>
-      <c r="I41" s="11">
-        <v>116229</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>18252579</v>
       </c>
       <c r="F42" s="9">
-        <v>18252579</v>
+        <v>20696221</v>
       </c>
       <c r="G42" s="9">
-        <v>20696221</v>
+        <v>19672875</v>
       </c>
       <c r="H42" s="9">
-        <v>19672875</v>
+        <v>19543722</v>
       </c>
       <c r="I42" s="9">
-        <v>19543722</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20578642</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>25</v>
@@ -1422,32 +1416,32 @@
       <c r="E43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>26</v>
+      <c r="F43" s="11">
+        <v>15328</v>
       </c>
       <c r="G43" s="11">
-        <v>15328</v>
+        <v>8337</v>
       </c>
       <c r="H43" s="11">
-        <v>8337</v>
+        <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>26</v>
@@ -1459,29 +1453,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>18358024</v>
       </c>
       <c r="F45" s="13">
-        <v>18358024</v>
+        <v>20852659</v>
       </c>
       <c r="G45" s="13">
-        <v>20852659</v>
+        <v>19801954</v>
       </c>
       <c r="H45" s="13">
-        <v>19801954</v>
+        <v>19659951</v>
       </c>
       <c r="I45" s="13">
-        <v>19659951</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20771720</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1491,7 +1485,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1501,7 +1495,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1511,9 +1505,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1533,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1543,7 +1537,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1554,70 +1548,70 @@
       <c r="E51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>26</v>
+      <c r="F51" s="9">
+        <v>19054</v>
       </c>
       <c r="G51" s="9">
-        <v>19054</v>
+        <v>10917</v>
       </c>
       <c r="H51" s="9">
-        <v>10917</v>
+        <v>287</v>
       </c>
       <c r="I51" s="9">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16959</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>104972</v>
+      </c>
+      <c r="F52" s="11">
+        <v>137346</v>
+      </c>
+      <c r="G52" s="11">
+        <v>115423</v>
+      </c>
+      <c r="H52" s="11">
+        <v>116579</v>
+      </c>
+      <c r="I52" s="11">
+        <v>173251</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="11">
-        <v>104972</v>
-      </c>
-      <c r="G52" s="11">
-        <v>137346</v>
-      </c>
-      <c r="H52" s="11">
-        <v>115423</v>
-      </c>
-      <c r="I52" s="11">
-        <v>116579</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
+      <c r="E53" s="9">
+        <v>18309775</v>
       </c>
       <c r="F53" s="9">
-        <v>18309775</v>
+        <v>20633227</v>
       </c>
       <c r="G53" s="9">
-        <v>20633227</v>
+        <v>19671289</v>
       </c>
       <c r="H53" s="9">
-        <v>19671289</v>
+        <v>19640323</v>
       </c>
       <c r="I53" s="9">
-        <v>19640323</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20631330</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>25</v>
@@ -1626,33 +1620,33 @@
       <c r="E54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>26</v>
+      <c r="F54" s="11">
+        <v>4355</v>
       </c>
       <c r="G54" s="11">
-        <v>4355</v>
+        <v>7382</v>
       </c>
       <c r="H54" s="11">
-        <v>7382</v>
+        <v>1987</v>
       </c>
       <c r="I54" s="11">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="9">
+      <c r="E55" s="9">
         <v>11714</v>
       </c>
+      <c r="F55" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G55" s="9" t="s">
         <v>26</v>
       </c>
@@ -1663,29 +1657,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>18426461</v>
       </c>
       <c r="F56" s="13">
-        <v>18426461</v>
+        <v>20793982</v>
       </c>
       <c r="G56" s="13">
-        <v>20793982</v>
+        <v>19805011</v>
       </c>
       <c r="H56" s="13">
-        <v>19805011</v>
+        <v>19759176</v>
       </c>
       <c r="I56" s="13">
-        <v>19759176</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20821699</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1695,7 +1689,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1705,7 +1699,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1715,9 +1709,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1737,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1747,7 +1741,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1758,70 +1752,70 @@
       <c r="E62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>26</v>
+      <c r="F62" s="9">
+        <v>7612</v>
       </c>
       <c r="G62" s="9">
-        <v>7612</v>
+        <v>287</v>
       </c>
       <c r="H62" s="9">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I62" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>4038</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2672</v>
+      </c>
+      <c r="G63" s="11">
+        <v>4400</v>
+      </c>
+      <c r="H63" s="11">
+        <v>4049</v>
+      </c>
+      <c r="I63" s="11">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="11">
-        <v>4038</v>
-      </c>
-      <c r="G63" s="11">
-        <v>2672</v>
-      </c>
-      <c r="H63" s="11">
-        <v>4400</v>
-      </c>
-      <c r="I63" s="11">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>313229</v>
       </c>
       <c r="F64" s="9">
-        <v>313229</v>
+        <v>376223</v>
       </c>
       <c r="G64" s="9">
-        <v>376223</v>
+        <v>377810</v>
       </c>
       <c r="H64" s="9">
-        <v>377810</v>
+        <v>281208</v>
       </c>
       <c r="I64" s="9">
-        <v>281208</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>228521</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>25</v>
@@ -1830,33 +1824,33 @@
       <c r="E65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>26</v>
+      <c r="F65" s="11">
+        <v>10973</v>
       </c>
       <c r="G65" s="11">
-        <v>10973</v>
+        <v>11928</v>
       </c>
       <c r="H65" s="11">
-        <v>11928</v>
+        <v>9940</v>
       </c>
       <c r="I65" s="11">
-        <v>9940</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E66" s="9">
         <v>22572</v>
       </c>
+      <c r="F66" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G66" s="9" t="s">
         <v>26</v>
       </c>
@@ -1867,29 +1861,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>339839</v>
       </c>
       <c r="F67" s="13">
-        <v>339839</v>
+        <v>397480</v>
       </c>
       <c r="G67" s="13">
-        <v>397480</v>
+        <v>394425</v>
       </c>
       <c r="H67" s="13">
-        <v>394425</v>
+        <v>295197</v>
       </c>
       <c r="I67" s="13">
-        <v>295197</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>245219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1899,7 +1893,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1909,7 +1903,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1919,9 +1913,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1941,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1951,116 +1945,116 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>26</v>
+      <c r="F73" s="9">
+        <v>240668</v>
       </c>
       <c r="G73" s="9">
-        <v>240668</v>
+        <v>81159</v>
       </c>
       <c r="H73" s="9">
-        <v>81159</v>
+        <v>21004</v>
       </c>
       <c r="I73" s="9">
-        <v>21004</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
+      <c r="E74" s="11">
+        <v>48291</v>
       </c>
       <c r="F74" s="11">
-        <v>48291</v>
+        <v>121003</v>
       </c>
       <c r="G74" s="11">
-        <v>121003</v>
+        <v>213608</v>
       </c>
       <c r="H74" s="11">
-        <v>213608</v>
+        <v>428834</v>
       </c>
       <c r="I74" s="11">
-        <v>428834</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>787769</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>5372228</v>
+      </c>
+      <c r="F75" s="9">
+        <v>10832563</v>
+      </c>
+      <c r="G75" s="9">
+        <v>13471199</v>
+      </c>
+      <c r="H75" s="9">
+        <v>29631664</v>
+      </c>
+      <c r="I75" s="9">
+        <v>29777449</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
-        <v>5372228</v>
-      </c>
-      <c r="G75" s="9">
-        <v>10832563</v>
-      </c>
-      <c r="H75" s="9">
-        <v>13471199</v>
-      </c>
-      <c r="I75" s="9">
-        <v>29631664</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C76" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>26</v>
+      <c r="F76" s="11">
+        <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>0</v>
+        <v>386906</v>
       </c>
       <c r="H76" s="11">
-        <v>386906</v>
+        <v>307515</v>
       </c>
       <c r="I76" s="11">
-        <v>307515</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>256276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E77" s="9">
         <v>365564</v>
       </c>
+      <c r="F77" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G77" s="9" t="s">
         <v>26</v>
       </c>
@@ -2071,29 +2065,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>5786083</v>
       </c>
       <c r="F78" s="13">
-        <v>5786083</v>
+        <v>11194234</v>
       </c>
       <c r="G78" s="13">
-        <v>11194234</v>
+        <v>14152872</v>
       </c>
       <c r="H78" s="13">
-        <v>14152872</v>
+        <v>30389017</v>
       </c>
       <c r="I78" s="13">
-        <v>30389017</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30821494</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2103,7 +2097,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2113,7 +2107,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2123,9 +2117,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2145,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2155,115 +2149,115 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>26</v>
+      <c r="F84" s="9">
+        <v>166930</v>
       </c>
       <c r="G84" s="9">
-        <v>166930</v>
+        <v>303199</v>
       </c>
       <c r="H84" s="9">
-        <v>303199</v>
+        <v>0</v>
       </c>
       <c r="I84" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2492292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>26</v>
+      <c r="E85" s="11">
+        <v>3220583</v>
       </c>
       <c r="F85" s="11">
-        <v>3220583</v>
+        <v>11071426</v>
       </c>
       <c r="G85" s="11">
-        <v>11071426</v>
+        <v>11468354</v>
       </c>
       <c r="H85" s="11">
-        <v>11468354</v>
+        <v>23039633</v>
       </c>
       <c r="I85" s="11">
-        <v>23039633</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40206072</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9">
+        <v>449674292</v>
+      </c>
+      <c r="F86" s="9">
+        <v>817475760</v>
+      </c>
+      <c r="G86" s="9">
+        <v>966819995</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1950926451</v>
+      </c>
+      <c r="I86" s="9">
+        <v>2881368298</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
-        <v>449674292</v>
-      </c>
-      <c r="G86" s="9">
-        <v>817475760</v>
-      </c>
-      <c r="H86" s="9">
-        <v>966819995</v>
-      </c>
-      <c r="I86" s="9">
-        <v>1950926451</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C87" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>26</v>
+      <c r="F87" s="11">
+        <v>540476</v>
       </c>
       <c r="G87" s="11">
-        <v>540476</v>
+        <v>108536</v>
       </c>
       <c r="H87" s="11">
-        <v>108536</v>
+        <v>0</v>
       </c>
       <c r="I87" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="9">
-        <v>0</v>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>26</v>
@@ -2275,29 +2269,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>452894875</v>
       </c>
       <c r="F89" s="13">
-        <v>452894875</v>
+        <v>829254592</v>
       </c>
       <c r="G89" s="13">
-        <v>829254592</v>
+        <v>978700084</v>
       </c>
       <c r="H89" s="13">
-        <v>978700084</v>
+        <v>1973966084</v>
       </c>
       <c r="I89" s="13">
-        <v>1973966084</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2924066662</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2307,7 +2301,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2317,7 +2311,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2327,9 +2321,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2349,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2359,116 +2353,116 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>26</v>
+      <c r="F95" s="9">
+        <v>326440</v>
       </c>
       <c r="G95" s="9">
-        <v>326440</v>
+        <v>363355</v>
       </c>
       <c r="H95" s="9">
-        <v>363355</v>
+        <v>21004</v>
       </c>
       <c r="I95" s="9">
-        <v>21004</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2492292</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>26</v>
+      <c r="E96" s="11">
+        <v>3147871</v>
       </c>
       <c r="F96" s="11">
-        <v>3147871</v>
+        <v>10978820</v>
       </c>
       <c r="G96" s="11">
-        <v>10978820</v>
+        <v>11253128</v>
       </c>
       <c r="H96" s="11">
-        <v>11253128</v>
+        <v>22680698</v>
       </c>
       <c r="I96" s="11">
-        <v>22680698</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39415424</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>444213957</v>
+      </c>
+      <c r="F97" s="9">
+        <v>814837124</v>
+      </c>
+      <c r="G97" s="9">
+        <v>950659531</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1940780666</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2892042139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
-        <v>444213957</v>
-      </c>
-      <c r="G97" s="9">
-        <v>814837124</v>
-      </c>
-      <c r="H97" s="9">
-        <v>950659531</v>
-      </c>
-      <c r="I97" s="9">
-        <v>1940780666</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C98" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>26</v>
+      <c r="F98" s="11">
+        <v>153569</v>
       </c>
       <c r="G98" s="11">
-        <v>153569</v>
+        <v>187928</v>
       </c>
       <c r="H98" s="11">
-        <v>187928</v>
+        <v>51239</v>
       </c>
       <c r="I98" s="11">
-        <v>51239</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>256276</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="9">
+      <c r="E99" s="9">
         <v>124895</v>
       </c>
+      <c r="F99" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G99" s="9" t="s">
         <v>26</v>
       </c>
@@ -2479,29 +2473,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>447486723</v>
       </c>
       <c r="F100" s="13">
-        <v>447486723</v>
+        <v>826295953</v>
       </c>
       <c r="G100" s="13">
-        <v>826295953</v>
+        <v>962463942</v>
       </c>
       <c r="H100" s="13">
-        <v>962463942</v>
+        <v>1963533607</v>
       </c>
       <c r="I100" s="13">
-        <v>1963533607</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2934206131</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2511,7 +2505,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2521,7 +2515,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2531,9 +2525,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2553,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2563,116 +2557,116 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>26</v>
+      <c r="F106" s="9">
+        <v>81158</v>
       </c>
       <c r="G106" s="9">
-        <v>81158</v>
+        <v>21003</v>
       </c>
       <c r="H106" s="9">
-        <v>21003</v>
+        <v>0</v>
       </c>
       <c r="I106" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
+      <c r="E107" s="11">
+        <v>121003</v>
       </c>
       <c r="F107" s="11">
-        <v>121003</v>
+        <v>213609</v>
       </c>
       <c r="G107" s="11">
-        <v>213609</v>
+        <v>428834</v>
       </c>
       <c r="H107" s="11">
-        <v>428834</v>
+        <v>787769</v>
       </c>
       <c r="I107" s="11">
-        <v>787769</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1578417</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
+        <v>10832563</v>
+      </c>
+      <c r="F108" s="9">
+        <v>13471199</v>
+      </c>
+      <c r="G108" s="9">
+        <v>29631663</v>
+      </c>
+      <c r="H108" s="9">
+        <v>39777449</v>
+      </c>
+      <c r="I108" s="9">
+        <v>19103608</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
-        <v>10832563</v>
-      </c>
-      <c r="G108" s="9">
-        <v>13471199</v>
-      </c>
-      <c r="H108" s="9">
-        <v>29631663</v>
-      </c>
-      <c r="I108" s="9">
-        <v>39777449</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C109" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>26</v>
+      <c r="F109" s="11">
+        <v>386907</v>
       </c>
       <c r="G109" s="11">
-        <v>386907</v>
+        <v>307514</v>
       </c>
       <c r="H109" s="11">
-        <v>307514</v>
+        <v>256276</v>
       </c>
       <c r="I109" s="11">
-        <v>256276</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="9">
+      <c r="E110" s="9">
         <v>240669</v>
       </c>
+      <c r="F110" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G110" s="9" t="s">
         <v>26</v>
       </c>
@@ -2683,29 +2677,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>0</v>
+        <v>11194235</v>
       </c>
       <c r="F111" s="13">
-        <v>11194235</v>
+        <v>14152873</v>
       </c>
       <c r="G111" s="13">
-        <v>14152873</v>
+        <v>30389014</v>
       </c>
       <c r="H111" s="13">
-        <v>30389014</v>
+        <v>40821494</v>
       </c>
       <c r="I111" s="13">
-        <v>40821494</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20682025</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2715,7 +2709,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2725,7 +2719,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2735,9 +2729,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2757,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2767,84 +2761,84 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>26</v>
+      <c r="F117" s="9">
+        <v>10662236</v>
       </c>
       <c r="G117" s="9">
-        <v>10662236</v>
+        <v>10661981</v>
       </c>
       <c r="H117" s="9">
-        <v>10661981</v>
-      </c>
-      <c r="I117" s="9">
         <v>73184669</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
+      <c r="E118" s="11">
+        <v>13545863</v>
       </c>
       <c r="F118" s="11">
-        <v>13545863</v>
+        <v>40307462</v>
       </c>
       <c r="G118" s="11">
-        <v>40307462</v>
+        <v>79913206</v>
       </c>
       <c r="H118" s="11">
-        <v>79913206</v>
+        <v>97484428</v>
       </c>
       <c r="I118" s="11">
-        <v>97484428</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>194558903</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>14502876</v>
+      </c>
+      <c r="F119" s="9">
+        <v>34583525</v>
+      </c>
+      <c r="G119" s="9">
+        <v>35806325</v>
+      </c>
+      <c r="H119" s="9">
+        <v>78430276</v>
+      </c>
+      <c r="I119" s="9">
+        <v>105890811</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
-        <v>14502876</v>
-      </c>
-      <c r="G119" s="9">
-        <v>34583525</v>
-      </c>
-      <c r="H119" s="9">
-        <v>35806325</v>
-      </c>
-      <c r="I119" s="9">
-        <v>78430276</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C120" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
@@ -2853,30 +2847,30 @@
       <c r="F120" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>26</v>
+      <c r="G120" s="11">
+        <v>35259820</v>
       </c>
       <c r="H120" s="11">
-        <v>35259820</v>
+        <v>25783097</v>
       </c>
       <c r="I120" s="11">
-        <v>25783097</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25782294</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="9">
+      <c r="E121" s="9">
         <v>10662194</v>
       </c>
+      <c r="F121" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G121" s="9" t="s">
         <v>26</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2897,7 +2891,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2907,7 +2901,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2917,9 +2911,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2939,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2949,103 +2943,103 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>26</v>
+      <c r="F127" s="9">
+        <v>40774304</v>
       </c>
       <c r="G127" s="9">
-        <v>40774304</v>
-      </c>
-      <c r="H127" s="9">
         <v>84409521</v>
       </c>
-      <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="9">
+        <v>146959844</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
+      <c r="E128" s="11">
+        <v>30542776</v>
       </c>
       <c r="F128" s="11">
-        <v>30542776</v>
+        <v>80803892</v>
       </c>
       <c r="G128" s="11">
-        <v>80803892</v>
+        <v>97894614</v>
       </c>
       <c r="H128" s="11">
-        <v>97894614</v>
+        <v>198226200</v>
       </c>
       <c r="I128" s="11">
-        <v>198226200</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>228289236</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>24636206</v>
+      </c>
+      <c r="F129" s="9">
+        <v>39498794</v>
+      </c>
+      <c r="G129" s="9">
+        <v>49144825</v>
+      </c>
+      <c r="H129" s="9">
+        <v>99823690</v>
+      </c>
+      <c r="I129" s="9">
+        <v>140017417</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
-        <v>24636206</v>
-      </c>
-      <c r="G129" s="9">
-        <v>39498794</v>
-      </c>
-      <c r="H129" s="9">
-        <v>49144825</v>
-      </c>
-      <c r="I129" s="9">
-        <v>99823690</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>26</v>
+      <c r="F130" s="11">
+        <v>35260699</v>
       </c>
       <c r="G130" s="11">
-        <v>35260699</v>
-      </c>
-      <c r="H130" s="11">
         <v>13018592</v>
       </c>
+      <c r="H130" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I130" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3055,7 +3049,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3065,7 +3059,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3075,9 +3069,9 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3097,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3107,116 +3101,116 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>26</v>
+      <c r="F136" s="9">
+        <v>17132361</v>
       </c>
       <c r="G136" s="9">
-        <v>17132361</v>
+        <v>33283411</v>
       </c>
       <c r="H136" s="9">
-        <v>33283411</v>
+        <v>73184669</v>
       </c>
       <c r="I136" s="9">
-        <v>73184669</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146959844</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>26</v>
+      <c r="E137" s="11">
+        <v>29987721</v>
       </c>
       <c r="F137" s="11">
-        <v>29987721</v>
+        <v>79935491</v>
       </c>
       <c r="G137" s="11">
-        <v>79935491</v>
+        <v>97494676</v>
       </c>
       <c r="H137" s="11">
-        <v>97494676</v>
+        <v>194552175</v>
       </c>
       <c r="I137" s="11">
-        <v>194552175</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227504742</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9">
+        <v>24261028</v>
+      </c>
+      <c r="F138" s="9">
+        <v>39491502</v>
+      </c>
+      <c r="G138" s="9">
+        <v>48327262</v>
+      </c>
+      <c r="H138" s="9">
+        <v>98816128</v>
+      </c>
+      <c r="I138" s="9">
+        <v>140177203</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="9">
-        <v>24261028</v>
-      </c>
-      <c r="G138" s="9">
-        <v>39491502</v>
-      </c>
-      <c r="H138" s="9">
-        <v>48327262</v>
-      </c>
-      <c r="I138" s="9">
-        <v>98816128</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C139" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>26</v>
+      <c r="F139" s="11">
+        <v>35262687</v>
       </c>
       <c r="G139" s="11">
-        <v>35262687</v>
+        <v>25457600</v>
       </c>
       <c r="H139" s="11">
-        <v>25457600</v>
+        <v>25787116</v>
       </c>
       <c r="I139" s="11">
-        <v>25787116</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1611798742</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="9">
+      <c r="E140" s="9">
         <v>10662028</v>
       </c>
+      <c r="F140" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G140" s="9" t="s">
         <v>26</v>
       </c>
@@ -3227,7 +3221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3237,7 +3231,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3247,7 +3241,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3257,9 +3251,9 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3279,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3289,7 +3283,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>24</v>
       </c>
@@ -3300,70 +3294,70 @@
       <c r="E146" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="9" t="s">
-        <v>26</v>
+      <c r="F146" s="9">
+        <v>10661850</v>
       </c>
       <c r="G146" s="9">
-        <v>10661850</v>
-      </c>
-      <c r="H146" s="9">
         <v>73181185</v>
       </c>
+      <c r="H146" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I146" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C147" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11">
+        <v>29966072</v>
+      </c>
+      <c r="F147" s="11">
+        <v>79943488</v>
+      </c>
+      <c r="G147" s="11">
+        <v>97462273</v>
+      </c>
+      <c r="H147" s="11">
+        <v>194558903</v>
+      </c>
+      <c r="I147" s="11">
+        <v>228193870</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="11">
-        <v>29966072</v>
-      </c>
-      <c r="G147" s="11">
-        <v>79943488</v>
-      </c>
-      <c r="H147" s="11">
-        <v>97462273</v>
-      </c>
-      <c r="I147" s="11">
-        <v>194558903</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
-        <v>26</v>
+      <c r="E148" s="9">
+        <v>34583525</v>
       </c>
       <c r="F148" s="9">
-        <v>34583525</v>
+        <v>35806421</v>
       </c>
       <c r="G148" s="9">
-        <v>35806421</v>
+        <v>78430065</v>
       </c>
       <c r="H148" s="9">
-        <v>78430065</v>
+        <v>141452053</v>
       </c>
       <c r="I148" s="9">
-        <v>141452053</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83596729</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>25</v>
@@ -3372,33 +3366,33 @@
       <c r="E149" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>26</v>
+      <c r="F149" s="11">
+        <v>35259911</v>
       </c>
       <c r="G149" s="11">
-        <v>35259911</v>
+        <v>25780852</v>
       </c>
       <c r="H149" s="11">
-        <v>25780852</v>
+        <v>25782294</v>
       </c>
       <c r="I149" s="11">
-        <v>25782294</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F150" s="9">
+      <c r="E150" s="9">
         <v>10662281</v>
       </c>
+      <c r="F150" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G150" s="9" t="s">
         <v>26</v>
       </c>
@@ -3409,7 +3403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3419,7 +3413,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3429,7 +3423,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3439,9 +3433,9 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3461,7 +3455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3471,9 +3465,9 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3487,15 +3481,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="9">
-        <v>0</v>
+        <v>-5495817</v>
       </c>
       <c r="I156" s="9">
-        <v>-5495817</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8594107</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -3515,9 +3509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -3537,9 +3531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -3559,97 +3553,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>0</v>
+        <v>-1806661</v>
       </c>
       <c r="F160" s="9">
-        <v>-1806661</v>
+        <v>-2697651</v>
       </c>
       <c r="G160" s="9">
-        <v>-2697651</v>
+        <v>-3491764</v>
       </c>
       <c r="H160" s="9">
-        <v>-3491764</v>
+        <v>0</v>
       </c>
       <c r="I160" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
-        <v>1350982</v>
+        <v>1319788</v>
       </c>
       <c r="F161" s="11">
-        <v>1319788</v>
+        <v>1560916</v>
       </c>
       <c r="G161" s="11">
-        <v>1560916</v>
+        <v>1585377</v>
       </c>
       <c r="H161" s="11">
-        <v>1585377</v>
+        <v>18237365</v>
       </c>
       <c r="I161" s="11">
-        <v>18237365</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30574551</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
-        <v>832723</v>
+        <v>1367774</v>
       </c>
       <c r="F162" s="9">
-        <v>1367774</v>
+        <v>1210884</v>
       </c>
       <c r="G162" s="9">
-        <v>1210884</v>
+        <v>1545851</v>
       </c>
       <c r="H162" s="9">
-        <v>1545851</v>
+        <v>1928434</v>
       </c>
       <c r="I162" s="9">
-        <v>1928434</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2190703</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
-        <v>763692</v>
+        <v>1011765</v>
       </c>
       <c r="F163" s="11">
-        <v>1011765</v>
+        <v>1468187</v>
       </c>
       <c r="G163" s="11">
-        <v>1468187</v>
+        <v>2683659</v>
       </c>
       <c r="H163" s="11">
-        <v>2683659</v>
+        <v>3962219</v>
       </c>
       <c r="I163" s="11">
-        <v>3962219</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13126887</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3669,48 +3663,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
-        <v>1133984</v>
+        <v>1354986</v>
       </c>
       <c r="F165" s="11">
-        <v>1354986</v>
+        <v>2934736</v>
       </c>
       <c r="G165" s="11">
-        <v>2934736</v>
+        <v>3288137</v>
       </c>
       <c r="H165" s="11">
-        <v>3288137</v>
+        <v>5694979</v>
       </c>
       <c r="I165" s="11">
-        <v>5694979</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11639838</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
-        <v>4081381</v>
+        <v>3247652</v>
       </c>
       <c r="F166" s="15">
-        <v>3247652</v>
+        <v>4477072</v>
       </c>
       <c r="G166" s="15">
-        <v>4477072</v>
+        <v>5611260</v>
       </c>
       <c r="H166" s="15">
-        <v>5611260</v>
+        <v>24327180</v>
       </c>
       <c r="I166" s="15">
-        <v>24327180</v>
+        <v>48937872</v>
       </c>
     </row>
   </sheetData>
